--- a/Testing/ShopperStackTestCases.xlsx
+++ b/Testing/ShopperStackTestCases.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12930785-76AB-41C2-88EF-E35448906352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C1FEA-0C5A-43AC-84D5-8C48815A5324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DFCE756-5BF9-42F9-BE11-3BF6C1BFE04B}"/>
+    <workbookView minimized="1" xWindow="4620" yWindow="1965" windowWidth="21600" windowHeight="11835" xr2:uid="{0DFCE756-5BF9-42F9-BE11-3BF6C1BFE04B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functionality" sheetId="1" r:id="rId1"/>
+    <sheet name="Integration" sheetId="2" r:id="rId2"/>
+    <sheet name="System" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +33,227 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>FOOTER</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Requirement No</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Pre Condition</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Test Case Type</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Step No</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Author Name</t>
+  </si>
+  <si>
+    <t>Reviewed by</t>
+  </si>
+  <si>
+    <t>Approved By</t>
+  </si>
+  <si>
+    <t>Approved date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signup </t>
+  </si>
+  <si>
+    <t>ShoppersStack</t>
+  </si>
+  <si>
+    <t>ssfasdf</t>
+  </si>
+  <si>
+    <t>TE use should have a username and pass</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Functionality test case</t>
+  </si>
+  <si>
+    <t>Signup page</t>
+  </si>
+  <si>
+    <t>should have internet connectivity</t>
+  </si>
+  <si>
+    <t>Open the browswer and enter the URL- https://shoppersstack.com/signup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sighup page shiuld be displayed with following modules                                 A) First Name Text field                        B)Last Name                                           C) Gender Radio Button                        D) Phone Number Text Field                                          E) Email Address Text field                                          F) Password Text Field                                          G ) Confirm Password                                          H) Terms and Condition checkbox </t>
+  </si>
+  <si>
+    <t>Following are the steps to test the First Name Text Field</t>
+  </si>
+  <si>
+    <t>Test 10 character allphabet</t>
+  </si>
+  <si>
+    <t>Minimum Length (3 characters)</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Just Above Minimum Length (4 characters)</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Typical Valid Length (10 characters)</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Maximum Length (20 characters)</t>
+  </si>
+  <si>
+    <t>ChristopherJameson</t>
+  </si>
+  <si>
+    <t>Mixed Characters (letters, apostrophes)</t>
+  </si>
+  <si>
+    <t>O'Connor</t>
+  </si>
+  <si>
+    <t>Below Minimum Length (2 characters)</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Above Maximum Length (21 characters)</t>
+  </si>
+  <si>
+    <t>ChristopherJamesonX</t>
+  </si>
+  <si>
+    <t>Empty Input</t>
+  </si>
+  <si>
+    <t>Only Spaces (3 characters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Special Characters (non-alphabetic characters)</t>
+  </si>
+  <si>
+    <t>John@Doe</t>
+  </si>
+  <si>
+    <t>Leading and Trailing Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John </t>
+  </si>
+  <si>
+    <t>Exactly 3 Spaces and Then Valid Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ann</t>
+  </si>
+  <si>
+    <t>20 Characters Including Spaces</t>
+  </si>
+  <si>
+    <t>Christopher Jameson</t>
+  </si>
+  <si>
+    <t>Mixed Case Input</t>
+  </si>
+  <si>
+    <t>JohnDoe</t>
+  </si>
+  <si>
+    <t>Numeric Characters</t>
+  </si>
+  <si>
+    <t>John123</t>
+  </si>
+  <si>
+    <t>Non-Latin Characters</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Excessively Long Input (100 characters)</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>Input with Mixed Lengths and Characters</t>
+  </si>
+  <si>
+    <t>ThisIsAReallyLongFirstNameThatExceedsTwentyCharacters</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,10 +275,59 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -64,7 +336,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -380,9 +685,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FEBE45-3A97-4A49-8086-DAAE7BCD5943}">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17" style="8" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="29.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="14"/>
+    <col min="11" max="11" width="58.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="8"/>
+    <col min="16" max="16" width="38.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J5" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9593AF3D-50B3-46FA-A273-90C762FFA607}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9267972-9A9C-4BA7-9222-83BF9B797E5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
